--- a/measures.xlsx
+++ b/measures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>строки/предикаты</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>строку и контекст</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>datetimeoffset</t>
   </si>
 </sst>
 </file>
@@ -375,19 +384,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,43 +419,52 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>10000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>100000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -467,33 +486,42 @@
       <c r="G10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>100000000</v>
       </c>

--- a/measures.xlsx
+++ b/measures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>строки/предикаты</t>
   </si>
@@ -36,22 +36,19 @@
     <t>number</t>
   </si>
   <si>
-    <t>byte[]</t>
-  </si>
-  <si>
     <t>только из контекста или строки</t>
   </si>
   <si>
     <t>строку и контекст</t>
   </si>
   <si>
-    <t>xml</t>
-  </si>
-  <si>
     <t>guid</t>
   </si>
   <si>
     <t>datetimeoffset</t>
+  </si>
+  <si>
+    <t>без предикатов</t>
   </si>
 </sst>
 </file>
@@ -88,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,20 +382,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,54 +417,137 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B5" s="1">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>151</v>
+      </c>
+      <c r="E5">
+        <v>152</v>
+      </c>
+      <c r="F5">
+        <v>152</v>
+      </c>
+      <c r="G5">
+        <v>152</v>
+      </c>
+      <c r="H5">
+        <v>152</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -484,51 +567,119 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>100000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>100000000</v>
+      <c r="B14">
+        <v>201</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>201</v>
+      </c>
+      <c r="F14">
+        <v>201</v>
+      </c>
+      <c r="G14">
+        <v>201</v>
+      </c>
+      <c r="H14">
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -552,30 +703,68 @@
       <c r="A21">
         <v>10000</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>100000</v>
       </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>500000</v>
       </c>
+      <c r="B23">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>147</v>
+      </c>
+      <c r="E23">
+        <v>160</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>100000000</v>
+      <c r="B24">
+        <v>249</v>
+      </c>
+      <c r="C24">
+        <v>273</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/measures.xlsx
+++ b/measures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>строки/предикаты</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>без предикатов</t>
+  </si>
+  <si>
+    <t>1000000 static</t>
   </si>
 </sst>
 </file>
@@ -85,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,28 +522,48 @@
         <v>1000000</v>
       </c>
       <c r="B5" s="1">
-        <v>152</v>
-      </c>
-      <c r="C5">
-        <v>151</v>
-      </c>
-      <c r="D5">
-        <v>151</v>
-      </c>
-      <c r="E5">
-        <v>152</v>
-      </c>
-      <c r="F5">
-        <v>152</v>
-      </c>
-      <c r="G5">
-        <v>152</v>
-      </c>
-      <c r="H5">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="C5" s="1">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1">
+        <v>144</v>
+      </c>
+      <c r="H5" s="1">
+        <v>144</v>
       </c>
       <c r="I5">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -677,6 +701,32 @@
         <v>201</v>
       </c>
     </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1">
+        <v>74</v>
+      </c>
+    </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>7</v>
@@ -765,6 +815,23 @@
       </c>
       <c r="E24">
         <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>107</v>
+      </c>
+      <c r="D25">
+        <v>123</v>
+      </c>
+      <c r="E25">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/measures.xlsx
+++ b/measures.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
-  <si>
-    <t>строки/предикаты</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>bool</t>
   </si>
@@ -52,6 +49,24 @@
   </si>
   <si>
     <t>1000000 static</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+  </si>
+  <si>
+    <t>время</t>
   </si>
 </sst>
 </file>
@@ -99,6 +114,1253 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nvarchar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>int</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>uniqueidentifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>без предикатов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nvarchar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>int</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>uniqueidentifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>без предикатов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nvarchar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>int</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>uniqueidentifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>без предикатов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nvarchar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>int</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>uniqueidentifier</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>без предикатов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="124026240"/>
+        <c:axId val="124044800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124026240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124044800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124044800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124026240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>bool</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>string</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>number</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>timespan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>bool</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>string</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>number</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>timespan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>bool</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>string</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>number</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>timespan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>bool</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>string</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>number</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>datetime</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>timespan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>datetimeoffset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>guid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="129296256"/>
+        <c:axId val="129297792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129296256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129297792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129297792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129296256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="127224064"/>
+        <c:axId val="129294720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127224064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129294720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129294720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127224064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="126527744"/>
+        <c:axId val="127201280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126527744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127201280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127201280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126527744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Диаграмма 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -397,37 +1659,35 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -496,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>74</v>
@@ -548,7 +1808,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>74</v>
@@ -557,44 +1817,50 @@
         <v>74</v>
       </c>
       <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1">
         <v>74</v>
       </c>
-      <c r="E6">
-        <v>74</v>
-      </c>
-      <c r="F6">
-        <v>74</v>
+      <c r="I6" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -703,7 +1969,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>74</v>
@@ -727,15 +1993,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20">
         <v>7</v>
       </c>
@@ -749,7 +2012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -766,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>100000</v>
       </c>
@@ -783,7 +2046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>500000</v>
       </c>
@@ -800,7 +2063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1000000</v>
       </c>
@@ -817,9 +2080,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>90</v>
@@ -833,10 +2096,72 @@
       <c r="E25">
         <v>140</v>
       </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>107</v>
+      </c>
+      <c r="E33">
+        <v>123</v>
+      </c>
+      <c r="F33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/measures.xlsx
+++ b/measures.xlsx
@@ -445,24 +445,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124026240"/>
-        <c:axId val="124044800"/>
+        <c:axId val="119673984"/>
+        <c:axId val="119675520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124026240"/>
+        <c:axId val="119673984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124044800"/>
+        <c:crossAx val="119675520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124044800"/>
+        <c:axId val="119675520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +470,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124026240"/>
+        <c:crossAx val="119673984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -483,7 +483,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -794,24 +794,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129296256"/>
-        <c:axId val="129297792"/>
+        <c:axId val="119726464"/>
+        <c:axId val="119728000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129296256"/>
+        <c:axId val="119726464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129297792"/>
+        <c:crossAx val="119728000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129297792"/>
+        <c:axId val="119728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +819,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129296256"/>
+        <c:crossAx val="119726464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -832,7 +832,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1075,25 +1075,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127224064"/>
-        <c:axId val="129294720"/>
+        <c:axId val="62619008"/>
+        <c:axId val="62624896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127224064"/>
+        <c:axId val="62619008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129294720"/>
+        <c:crossAx val="62624896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129294720"/>
+        <c:axId val="62624896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1101,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127224064"/>
+        <c:crossAx val="62619008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,7 +1114,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1193,25 +1193,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126527744"/>
-        <c:axId val="127201280"/>
+        <c:axId val="62648704"/>
+        <c:axId val="62650240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126527744"/>
+        <c:axId val="62648704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127201280"/>
+        <c:crossAx val="62650240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127201280"/>
+        <c:axId val="62650240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1219,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126527744"/>
+        <c:crossAx val="62648704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,7 +1232,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/measures.xlsx
+++ b/measures.xlsx
@@ -445,32 +445,85 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119673984"/>
-        <c:axId val="119675520"/>
+        <c:axId val="135664768"/>
+        <c:axId val="135666304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119673984"/>
+        <c:axId val="135664768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>тип</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> данных</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119675520"/>
+        <c:crossAx val="135666304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119675520"/>
+        <c:axId val="135666304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>время запроса, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119673984"/>
+        <c:crossAx val="135664768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -483,7 +536,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -794,32 +847,116 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119726464"/>
-        <c:axId val="119728000"/>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+        </c:dLbls>
+        <c:axId val="93979008"/>
+        <c:axId val="93980544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119726464"/>
+        <c:axId val="93979008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>тип данных</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37217541557305339"/>
+              <c:y val="0.86990740740740746"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119728000"/>
+        <c:crossAx val="93980544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119728000"/>
+        <c:axId val="93980544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> запрос</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1111111111111112E-2"/>
+              <c:y val="8.5745479731700214E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119726464"/>
+        <c:crossAx val="93979008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -832,7 +969,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1075,25 +1212,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62619008"/>
-        <c:axId val="62624896"/>
+        <c:axId val="94006656"/>
+        <c:axId val="94016640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62619008"/>
+        <c:axId val="94006656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62624896"/>
+        <c:crossAx val="94016640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62624896"/>
+        <c:axId val="94016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1238,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62619008"/>
+        <c:crossAx val="94006656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,7 +1251,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1193,33 +1330,86 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62648704"/>
-        <c:axId val="62650240"/>
+        <c:axId val="94036352"/>
+        <c:axId val="94037888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62648704"/>
+        <c:axId val="94036352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>предикаты, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62650240"/>
+        <c:crossAx val="94037888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62650240"/>
+        <c:axId val="94037888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>время запроса,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62648704"/>
+        <c:crossAx val="94036352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,7 +1422,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1242,16 +1432,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1272,16 +1462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1332,16 +1522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/measures.xlsx
+++ b/measures.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,22 +109,42 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -139,6 +159,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$1:$I$1</c:f>
@@ -204,6 +225,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1F8-4375-9506-CD61286FF48A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -219,6 +245,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$1:$I$1</c:f>
@@ -284,6 +311,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1F8-4375-9506-CD61286FF48A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -299,6 +331,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$1:$I$1</c:f>
@@ -364,6 +397,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1F8-4375-9506-CD61286FF48A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -379,6 +417,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$1:$I$1</c:f>
@@ -444,7 +483,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1F8-4375-9506-CD61286FF48A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="135664768"/>
         <c:axId val="135666304"/>
       </c:barChart>
@@ -453,6 +506,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -485,19 +539,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="135666304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="135666304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -520,8 +580,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="135664768"/>
         <c:crosses val="autoZero"/>
@@ -531,8 +594,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -543,14 +609,26 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -565,6 +643,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$10:$H$10</c:f>
@@ -624,6 +703,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A25-433A-A9B0-3E6FAB9121D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -639,6 +723,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$10:$H$10</c:f>
@@ -698,6 +783,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A25-433A-A9B0-3E6FAB9121D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -713,6 +803,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$10:$H$10</c:f>
@@ -772,6 +863,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A25-433A-A9B0-3E6FAB9121D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -787,6 +883,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$10:$H$10</c:f>
@@ -846,10 +943,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A25-433A-A9B0-3E6FAB9121D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="93979008"/>
         <c:axId val="93980544"/>
       </c:barChart>
@@ -858,6 +966,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -886,19 +995,25 @@
               <c:y val="0.86990740740740746"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93980544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93980544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -953,8 +1068,11 @@
               <c:y val="8.5745479731700214E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93979008"/>
         <c:crosses val="autoZero"/>
@@ -964,8 +1082,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -976,14 +1097,26 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -998,6 +1131,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$20:$E$20</c:f>
@@ -1040,6 +1174,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFB0-436D-BA78-EB31E5ABCC07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1055,6 +1194,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$20:$E$20</c:f>
@@ -1097,6 +1237,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFB0-436D-BA78-EB31E5ABCC07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1112,6 +1257,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$20:$E$20</c:f>
@@ -1154,6 +1300,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FFB0-436D-BA78-EB31E5ABCC07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1169,6 +1320,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$20:$E$20</c:f>
@@ -1211,7 +1363,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FFB0-436D-BA78-EB31E5ABCC07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="94006656"/>
         <c:axId val="94016640"/>
       </c:barChart>
@@ -1220,23 +1386,90 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>предикаты, шт</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="94016640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="94016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> запроса, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="94006656"/>
         <c:crosses val="autoZero"/>
@@ -1246,8 +1479,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1258,8 +1494,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1267,6 +1513,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1281,6 +1528,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$32:$F$32</c:f>
@@ -1329,7 +1577,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A327-489F-8C3D-CBD632B13A21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="94036352"/>
         <c:axId val="94037888"/>
       </c:barChart>
@@ -1338,6 +1600,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1359,20 +1622,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="94037888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="94037888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1406,8 +1674,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="94036352"/>
         <c:crosses val="autoZero"/>
@@ -1417,8 +1688,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1492,16 +1766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1554,9 +1828,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1594,9 +1868,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1628,9 +1902,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1662,9 +1937,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1837,14 +2113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -1854,7 +2130,7 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1880,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1909,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100000</v>
       </c>
@@ -1938,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500000</v>
       </c>
@@ -1967,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000000</v>
       </c>
@@ -1996,7 +2272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2025,12 +2301,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -2079,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100000</v>
       </c>
@@ -2105,7 +2381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500000</v>
       </c>
@@ -2131,7 +2407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000000</v>
       </c>
@@ -2157,7 +2433,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2183,12 +2459,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7</v>
       </c>
@@ -2202,7 +2478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -2219,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100000</v>
       </c>
@@ -2236,7 +2512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>500000</v>
       </c>
@@ -2253,7 +2529,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1000000</v>
       </c>
@@ -2270,7 +2546,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2287,15 +2563,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
@@ -2312,7 +2588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2608,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2341,7 +2617,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="H38" s="1"/>
@@ -2356,12 +2632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2369,12 +2645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
